--- a/data/posted invoices.xlsx
+++ b/data/posted invoices.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>reference</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>GF546</t>
+  </si>
+  <si>
+    <t>doc. number</t>
+  </si>
+  <si>
+    <t>vendor</t>
   </si>
 </sst>
 </file>
@@ -365,126 +371,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>12345</v>
+      </c>
+      <c r="B2">
+        <v>740000001</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D2" s="1">
         <v>44280</v>
       </c>
-      <c r="C2" s="2">
+      <c r="E2" s="2">
         <v>2000.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>32564</v>
+      </c>
+      <c r="B3">
+        <v>740000002</v>
+      </c>
+      <c r="C3">
         <v>4568456315</v>
       </c>
-      <c r="B3" s="1">
+      <c r="D3" s="1">
         <v>43966</v>
       </c>
-      <c r="C3" s="2">
+      <c r="E3" s="2">
         <v>25102.35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>549879</v>
+      </c>
+      <c r="B4">
+        <v>740000003</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="D4" s="1">
         <v>44327</v>
       </c>
-      <c r="C4" s="2">
+      <c r="E4" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>45555</v>
+      </c>
+      <c r="B5">
+        <v>740000004</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="D5" s="1">
         <v>44280</v>
       </c>
-      <c r="C5" s="2">
+      <c r="E5" s="2">
         <v>2000.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>489</v>
+      </c>
+      <c r="B6">
+        <v>740000005</v>
+      </c>
+      <c r="C6">
         <v>4567892</v>
       </c>
-      <c r="B6" s="1">
+      <c r="D6" s="1">
         <v>44275</v>
       </c>
-      <c r="C6" s="2">
+      <c r="E6" s="2">
         <v>1120.3599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>32654</v>
+      </c>
+      <c r="B7">
+        <v>740000006</v>
+      </c>
+      <c r="C7">
         <v>16548</v>
       </c>
-      <c r="B7" s="1">
+      <c r="D7" s="1">
         <v>44058</v>
       </c>
-      <c r="C7" s="2">
+      <c r="E7" s="2">
         <v>45851.12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>587646</v>
+      </c>
+      <c r="B8">
+        <v>740000007</v>
+      </c>
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="D8" s="1">
         <v>44219</v>
       </c>
-      <c r="C8" s="2">
+      <c r="E8" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>687465</v>
+      </c>
+      <c r="B9">
+        <v>740000008</v>
+      </c>
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
+      <c r="D9" s="1">
         <v>44296</v>
       </c>
-      <c r="C9" s="2">
+      <c r="E9" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>66846</v>
+      </c>
+      <c r="B10">
+        <v>740000009</v>
+      </c>
+      <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1">
+      <c r="D10" s="1">
         <v>44327</v>
       </c>
-      <c r="C10" s="2">
+      <c r="E10" s="2">
         <v>105</v>
       </c>
     </row>

--- a/data/posted invoices.xlsx
+++ b/data/posted invoices.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>reference</t>
   </si>
@@ -38,9 +38,6 @@
     <t>DAB1234</t>
   </si>
   <si>
-    <t>jk5468-20</t>
-  </si>
-  <si>
     <t>2021-nhgf45</t>
   </si>
   <si>
@@ -51,6 +48,15 @@
   </si>
   <si>
     <t>vendor</t>
+  </si>
+  <si>
+    <t>sjhjhS</t>
+  </si>
+  <si>
+    <t>hgvxhcgvjhk</t>
+  </si>
+  <si>
+    <t>GF546hfhk</t>
   </si>
 </sst>
 </file>
@@ -371,188 +377,444 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>12345</v>
       </c>
-      <c r="B2">
+      <c r="C2">
+        <v>740000088</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44280</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2000.2</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12345</v>
+      </c>
+      <c r="C3">
+        <v>740000005</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44280</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2000.2</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12345</v>
+      </c>
+      <c r="C4">
         <v>740000001</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E4" s="1">
         <v>44280</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F4" s="2">
         <v>2000.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="L4" s="1"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>32564</v>
       </c>
-      <c r="B3">
+      <c r="C5">
+        <v>7400000444</v>
+      </c>
+      <c r="D5">
+        <v>4568456315</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44027</v>
+      </c>
+      <c r="F5" s="2">
+        <v>25102.35</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>32564</v>
+      </c>
+      <c r="C6">
+        <v>740000333</v>
+      </c>
+      <c r="D6">
+        <v>4568456315</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43997</v>
+      </c>
+      <c r="F6" s="2">
+        <v>25102.35</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>32564</v>
+      </c>
+      <c r="C7">
         <v>740000002</v>
       </c>
-      <c r="C3">
+      <c r="D7">
         <v>4568456315</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E7" s="1">
         <v>43966</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F7" s="2">
         <v>25102.35</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>549879</v>
-      </c>
-      <c r="B4">
-        <v>740000003</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="L7" s="1"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>489</v>
+      </c>
+      <c r="C8">
+        <v>74000088892</v>
+      </c>
+      <c r="D8">
+        <v>45678921</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44275</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1120.3599999999999</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>489</v>
+      </c>
+      <c r="C9">
+        <v>740006666</v>
+      </c>
+      <c r="D9">
+        <v>4567892</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44275</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1120.3599999999999</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>489</v>
+      </c>
+      <c r="C10">
+        <v>740000005</v>
+      </c>
+      <c r="D10">
+        <v>45678925</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44275</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1120.3599999999999</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>66846</v>
+      </c>
+      <c r="C11">
+        <v>740000015</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44327</v>
+      </c>
+      <c r="F11" s="2">
+        <v>105</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>66846</v>
+      </c>
+      <c r="C12">
+        <v>740000009</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44327</v>
+      </c>
+      <c r="F12" s="2">
+        <v>105</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>587646</v>
+      </c>
+      <c r="C13">
+        <v>740001111</v>
+      </c>
+      <c r="D13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
-        <v>44327</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="E13" s="1">
+        <v>44250</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>587646</v>
+      </c>
+      <c r="C14">
+        <v>740000007</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44219</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>32654</v>
+      </c>
+      <c r="C15">
+        <v>7400000054996</v>
+      </c>
+      <c r="D15">
+        <v>16548822</v>
+      </c>
+      <c r="E15" s="1">
+        <v>44058</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45851.12</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>32654</v>
+      </c>
+      <c r="C16">
+        <v>740000888</v>
+      </c>
+      <c r="D16">
+        <v>1654888</v>
+      </c>
+      <c r="E16" s="1">
+        <v>44058</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45851.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>66846</v>
+      </c>
+      <c r="C17">
+        <v>740000009</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1">
+        <v>44424</v>
+      </c>
+      <c r="F17" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>66846</v>
+      </c>
+      <c r="C18">
+        <v>740465161</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>44541</v>
+      </c>
+      <c r="F18" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>66846</v>
+      </c>
+      <c r="C19">
+        <v>740002165</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1">
+        <v>44209</v>
+      </c>
+      <c r="F19" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>45555</v>
-      </c>
-      <c r="B5">
-        <v>740000004</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>12345</v>
+      </c>
+      <c r="C20">
+        <v>7400004444</v>
+      </c>
+      <c r="D20" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E20" s="1">
         <v>44280</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F20" s="2">
         <v>2000.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>489</v>
-      </c>
-      <c r="B6">
-        <v>740000005</v>
-      </c>
-      <c r="C6">
-        <v>4567892</v>
-      </c>
-      <c r="D6" s="1">
-        <v>44275</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1120.3599999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>32654</v>
-      </c>
-      <c r="B7">
-        <v>740000006</v>
-      </c>
-      <c r="C7">
-        <v>16548</v>
-      </c>
-      <c r="D7" s="1">
-        <v>44058</v>
-      </c>
-      <c r="E7" s="2">
-        <v>45851.12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>587646</v>
-      </c>
-      <c r="B8">
-        <v>740000007</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>44219</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>687465</v>
-      </c>
-      <c r="B9">
-        <v>740000008</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>44296</v>
-      </c>
-      <c r="E9" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>66846</v>
-      </c>
-      <c r="B10">
-        <v>740000009</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>44327</v>
-      </c>
-      <c r="E10" s="2">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
